--- a/medicine/Pharmacie/Lifitegrast/Lifitegrast.xlsx
+++ b/medicine/Pharmacie/Lifitegrast/Lifitegrast.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lifitegrast est une molécule  antagoniste du LFA-1 empêchant son interaction avec l'ICAM-1 et en cours de test dans la sécheresse oculaire.
 </t>
@@ -511,9 +523,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En collyre, il se fixe sur l'LFA-1 empêchant son interaction avec l'ICAM-1, diminuant la réponse inflammatoire[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En collyre, il se fixe sur l'LFA-1 empêchant son interaction avec l'ICAM-1, diminuant la réponse inflammatoire.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Donné sous forme de gouttes, deux fois par jour, il améliore les symptômes de la sécheresse oculaire[2]. Il semble améliorer parfois les lésions cornéennes tels que vues à la fluorescéine[3], mais cela reste discuté[4]. Il n'existe, pour l'instant pas de comparaison avec les autres traitements du syndrome sec[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Donné sous forme de gouttes, deux fois par jour, il améliore les symptômes de la sécheresse oculaire. Il semble améliorer parfois les lésions cornéennes tels que vues à la fluorescéine, mais cela reste discuté. Il n'existe, pour l'instant pas de comparaison avec les autres traitements du syndrome sec.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">la tolérance est bonne. Les effets secondaires principaux sont une irritation oculaire et une dysgueusie[5]. Sous forme de collyre, la pénétration systémique semble quasi nulle, la molécule semblant indétectable dans le sang[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">la tolérance est bonne. Les effets secondaires principaux sont une irritation oculaire et une dysgueusie. Sous forme de collyre, la pénétration systémique semble quasi nulle, la molécule semblant indétectable dans le sang.
 </t>
         </is>
       </c>
